--- a/medicine/Enfance/Constantin_Kaïtéris/Constantin_Kaïtéris.xlsx
+++ b/medicine/Enfance/Constantin_Kaïtéris/Constantin_Kaïtéris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Constantin_Ka%C3%AFt%C3%A9ris</t>
+          <t>Constantin_Kaïtéris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Kaïtéris, né en 1948 à Paris, est un enseignant, lexicographe, écrivain, poète et traducteur français d’ascendance grecque et française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Constantin_Ka%C3%AFt%C3%A9ris</t>
+          <t>Constantin_Kaïtéris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantin Kaïteris a fait des études de lettres modernes à la faculté des lettres de Paris et de langues et civilisations à l'Institut national des langues et civilisations orientales (amharique, grec moderne).
-Professeur certifié de lettres modernes, il est professeur de français dans la région parisienne puis attaché linguistique ou professeur dans des lycées français, en Éthiopie, en Égypte (Lycée français d'Alexandrie), en Grèce, en Albanie[1]. En cette qualité, il s'engage à titre syndical et exerce des responsabilités importantes[2].
+Professeur certifié de lettres modernes, il est professeur de français dans la région parisienne puis attaché linguistique ou professeur dans des lycées français, en Éthiopie, en Égypte (Lycée français d'Alexandrie), en Grèce, en Albanie. En cette qualité, il s'engage à titre syndical et exerce des responsabilités importantes.
 Il a publié chez divers éditeurs des ouvrages dans plusieurs catégories : recueils de poésie, dictionnaires et manuels de langue, traductions, livres d'art, ouvrages pour enfants.
 Il publie aussi dans plusieurs revues : Bacchanales, Voix d’encre, Boxon, Le Mâche-Laurier.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Constantin_Ka%C3%AFt%C3%A9ris</t>
+          <t>Constantin_Kaïtéris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,19 +561,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages originaux
-Poèmes, contes, dictionnaires, langues, beaux livres
+          <t>Ouvrages originaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Poèmes, contes, dictionnaires, langues, beaux livres
 État des lieux, éditions Saint-Germain-des-Prés, 1983.
 Prière de tenir la main courante ; suivi d’Instructions pratiques pour les premiers secours : 1971-1975, éditions Saint-Germain-des-Prés, 1982.
-Les pommes politiques : "Poèmmes", VR/SO éditeur, 1993[3]
+Les pommes politiques : "Poèmmes", VR/SO éditeur, 1993
 Contes d'Éthiopie, Présence africaine, 1999  (ISBN 978-2-7087-0789-4)
 Nanos Valaoritis, Constantin Kaïtéris, La Grèce a quatre mille ans, Digraphe, 2000  (ISBN 978-2-84237-032-9)
 Contes d'Éthiopie (illustrations d’Anzoumana Camara) 2e volume : Le roi qui écoutait des histoires et autres contes éthiopiens, illustrations d'Éric Martin, Présence africaine, 2009  (ISBN 2-7087-0692-6)
 Impressions d’Afrique fantôme, L’Arbre à paroles, 2003  (ISBN 978-2-87406-231-5)
 Dans la conjonction des regards, L’Arbre à paroles, 2004  (ISBN 978-2-87406-280-3)
-A/Z Les aventures tumul/tueuses et passion/nées d'Anna-Lise Zenana, K Édition, 2005  (ISBN 2-951794-04-5)[4]
+A/Z Les aventures tumul/tueuses et passion/nées d'Anna-Lise Zenana, K Édition, 2005  (ISBN 2-951794-04-5)
 Éclats différés du temps, illustré par Santamouris Christos, Voix d'encre, 2006  (ISBN 2-35128-014-8)
-Dimitris Pantelodimos, Constantin Kaïtéris, Dictionnaire grec moderne / français, librairie Kauffmann (Athènes) (Δημητρης Παντελοδημος, Κωνσταντινος Καϊτερης Ελληνο-γαλλικό λεξικό)  (ISBN 960-7256-85-9)[5]
+Dimitris Pantelodimos, Constantin Kaïtéris, Dictionnaire grec moderne / français, librairie Kauffmann (Athènes) (Δημητρης Παντελοδημος, Κωνσταντινος Καϊτερης Ελληνο-γαλλικό λεξικό)  (ISBN 960-7256-85-9)
 Kondjit Guetachew, Constantin Kaïteris, Amharique express, Pour voyager en Éthiopie, Dauphin, 2009  (ISBN 978-2-7163-1374-2) (collection Langue vivante express)
 Rouleaux magiques éthiopiens - Déroulement de l'ange, Archange Minotaure, 2005  (ISBN 2-914453-55-8)
 Rouleaux magiques éthiopiens - Enchantement du démon, Archange Minotaure, 2006  (ISBN 2-914453-81-7)
@@ -575,18 +594,7 @@
 Le Quincaillier et la Remailleuse et autres métiers perdus (illustrations de Brigitte Dusserre-Bresson), Éditions Corps Puce, Amiens, 2017, (coll. Le Poémier, no 28)  (ISBN 978-2-35281-115-2)
 Sur un arbre caché (illustrations de Joanna Boillat), Éditions Møtus, 2018  (ISBN 978-2-36011-078-0) (collection Pommes Pirates Papillons)
 L’Éthiopie à travers le regard de ses peintres - Histoire et sujets de la peinture populaire éthiopienne, éditions Sépia / L'Harmattan, 2018  (ISBN 979-10-334-0151-3)
-Tadeletch la rusée - Conte d'Éthiopie (illustrations d'Alemou Haïlé-Mariam), L'Harmattan, 2020  (ISBN 978-2-343-21380-4) (collection La Légende des Mondes)
-Traductions
-Traduction de l'amharique
-Haddis Alemayehu  (ሀዲስ ዓለማየሁ), L’Amour jusqu’au tombeau (ፍቅር እስከ መቃብር Fəqər əskä Mäqabər), éditions Pétra (d), 2021  (ISBN 978-2-84743-285-5)
-Traduction du grec
-Nikos Houliaras, Dans la maison de mon ennemi (Στο σπίτι του εχθρού μου), Hatier - Librairie Kauffmann, 1996  (ISBN 979-10-334-0151-3)
-Andréas Embiríkos, Amour, amour (œuvres choisies) (Préface de Nanos Valaoritis). L'Harmattan, 2007  (ISBN 978-2-296-03161-6)
-Yannis Skaribas, L'Air de Figaro (Το σόλο του Φίγκαρο), Hatier - Librairie Kauffmann, 1995  (ISBN 2-218-06848-6)
-Níkos Engonópoulos, Le Retour des oiseaux (Η επιστροφή των πουλιών) (Préface de Nanos Valaoritis). L'Harmattan, 2010  (ISBN 978-2-296-12978-8)
-Panagiotis Agapitos, Le Luth d’ébène, Une enquête de Léon le protospathaire, Anacharsis, Toulouse, 2013  (ISBN 978-2-296-12978-8)
-Traduction vers le grec
-Alain Blanc, Instantanés des Cyclades, Voix d'encre, 2002  (ISBN 978-2-910957-03-2)</t>
+Tadeletch la rusée - Conte d'Éthiopie (illustrations d'Alemou Haïlé-Mariam), L'Harmattan, 2020  (ISBN 978-2-343-21380-4) (collection La Légende des Mondes)</t>
         </is>
       </c>
     </row>
@@ -596,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Constantin_Ka%C3%AFt%C3%A9ris</t>
+          <t>Constantin_Kaïtéris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,13 +619,139 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Traduction de l'amharique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Haddis Alemayehu  (ሀዲስ ዓለማየሁ), L’Amour jusqu’au tombeau (ፍቅር እስከ መቃብር Fəqər əskä Mäqabər), éditions Pétra (d), 2021  (ISBN 978-2-84743-285-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Constantin_Kaïtéris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constantin_Ka%C3%AFt%C3%A9ris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Traduction du grec</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nikos Houliaras, Dans la maison de mon ennemi (Στο σπίτι του εχθρού μου), Hatier - Librairie Kauffmann, 1996  (ISBN 979-10-334-0151-3)
+Andréas Embiríkos, Amour, amour (œuvres choisies) (Préface de Nanos Valaoritis). L'Harmattan, 2007  (ISBN 978-2-296-03161-6)
+Yannis Skaribas, L'Air de Figaro (Το σόλο του Φίγκαρο), Hatier - Librairie Kauffmann, 1995  (ISBN 2-218-06848-6)
+Níkos Engonópoulos, Le Retour des oiseaux (Η επιστροφή των πουλιών) (Préface de Nanos Valaoritis). L'Harmattan, 2010  (ISBN 978-2-296-12978-8)
+Panagiotis Agapitos, Le Luth d’ébène, Une enquête de Léon le protospathaire, Anacharsis, Toulouse, 2013  (ISBN 978-2-296-12978-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Constantin_Kaïtéris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constantin_Ka%C3%AFt%C3%A9ris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Traduction vers le grec</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alain Blanc, Instantanés des Cyclades, Voix d'encre, 2002  (ISBN 978-2-910957-03-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Constantin_Kaïtéris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constantin_Ka%C3%AFt%C3%A9ris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">9e prix Poésie des lecteurs Lire et faire lire[réf. souhaitée]  pour Les Zanimots Zétonnants 
-Prix Joël Sadeler 2010[6] pour Les Zanimots Zétonnants </t>
+Prix Joël Sadeler 2010 pour Les Zanimots Zétonnants </t>
         </is>
       </c>
     </row>
